--- a/trunk/工作文档/人才筛选/恒拓开源工程师DotNet技术Band等级自评表.xlsx
+++ b/trunk/工作文档/人才筛选/恒拓开源工程师DotNet技术Band等级自评表.xlsx
@@ -134,11 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">了解Html语法，能手工编写简单的表格和表单，了解有Js，能编写简单的验证。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">了解基本的Ado.Net编程对象，能够编写基本的Ado.Net数据库操作代码。能够编写基本 select update insert TSQL语句。
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,14 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用C#有一年以上经验，了解数据类型使用差别，有一定的面向对象编程经验，理解多态、封装、继承。能区分引用类型与值类型的差别。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进一步了解Html，能够编写复杂的表格以及表单，了解Jquery，能够编写一些简单的特效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>了解SqlParamer，知道Sql参数的使用，了解DataSet与SqlDataReader的差异。能够编写存储过程，视图，掌握复杂的TSQL语句的编写 Group by Having Inner Join 子查询。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,14 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掌握C#可空类，泛型，委托事件，局部类，扩展方法高级用法并且能够在项目中有一定的使用经验，了解部分设计模式，能够在开发中使用，了解Linq语法的使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够熟练的使用Ajax编写客户端与服务器端的交互代码，进一步了解Jquery，能熟练使用选择器和事件机制去编写一些复杂的特效，对Json初步了解能编写简单的Jquery插件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进一步掌握Ado.Net,立即连接字符串的一些高级配置属性，能够编写Ado。Net事务代码。了解数据库连接池概念，了解触发器，函数，游标的使用。能够在存储过程里面编写复杂的事务。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,10 +399,6 @@
   </si>
   <si>
     <t>更深入的了解C#语言，对GC、反射、动态编译，动态代理，依赖注入、延迟加载能有一定的使用，能熟练使用重构工具对代码进行优化，掌握更多的设计模式，深入理解面向对象理论，对于算法有一定的了解，深入的了解Linq语法的使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 对Json有更深入的了解，有比较成型的客户端服务器端交互编程经验，能编写一定复杂的Jquery插件，初步了解Js面向对象概念，熟练掌握DOM模型。了解一些js框架（Extjs）有使用检验，能够编写复杂的Js组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -648,6 +623,31 @@
   </si>
   <si>
     <t>Gis技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">了解Html语法，能手工编写简单的表格和表单，了解有Js，能编写简单的验证。了解基本css样式
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用C#有一年以上经验，了解数据类型使用差别，有一定的面向对象编程经验，理解多态、封装、继承。能区分引用类型与值类型的差别。了解可空类型，泛型，局部类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练运用委托事件，扩展方法高级用法并且能够在项目中有一定的使用经验，了解部分设计模式，能够在开发中使用，了解Linq语法的使用。了解一两种常用的设计模式（单例和工厂）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步了解Html，能够编写复杂的表格以及表单，了解Jquery，熟悉基本的选择器以及事件的使用，能够编写一些简单的特效。了解基本的div布局。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够熟练的使用Ajax编写客户端与服务器端的交互代码，进一步了解Jquery，能熟练使用选择器和事件机制去编写一些复杂的特效，对Json初步了解能编写简单的Jquery插件。能够熟练的运用一些现成的Jquery插件应用解决项目中的问题（验证，页面遮罩），能手写一些复杂的css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 对Json有更深入的了解，有比较丰富的客户端服务器端交互编程经验，能编写一定复杂的Jquery插件，初步了解Js面向对象概念，熟练掌握DOM模型。能够熟练的使用jsUI框架（Extjs，Jquery Easy UI）搭建项目，能够编写复杂的Js组件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,6 +914,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -935,29 +968,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -968,9 +1001,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,36 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1317,486 +1317,486 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-    </row>
-    <row r="3" spans="1:23" ht="33">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="120" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:23" ht="120" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="120" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:23" ht="120" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="120" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="F6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:23" ht="120" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="120" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="G7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="I7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="J7" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="K7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="L7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="M7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="N7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="O7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="P7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="Q7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="R7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="S7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="T7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="U7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:23" ht="120" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="F8" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="120" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="G8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="H8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="I8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="J8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="K8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="L8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="M8" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="N8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="O8" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="P8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="Q8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="R8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="S8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="T8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="U8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1830,301 +1830,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="54" customHeight="1">
-      <c r="A1" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="A1" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>151</v>
+      <c r="E2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:12" ht="24">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:12" ht="24">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:12" ht="24">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="9" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:12" ht="24">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:12" ht="24">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:12" ht="24">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="9" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:12" ht="24">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:12" ht="24">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" ht="24">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="11" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:12" ht="24">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="12" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:12" ht="24">
-      <c r="A16" s="20"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="12" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="30"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="33">
-      <c r="A17" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="15" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="33">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="15" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="16.5">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="15" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" ht="33">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="15" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="16.5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="15" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="16.5">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="16.5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A17:B21"/>
+    <mergeCell ref="A22:B24"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A17:B21"/>
-    <mergeCell ref="A22:B24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/工作文档/人才筛选/恒拓开源工程师DotNet技术Band等级自评表.xlsx
+++ b/trunk/工作文档/人才筛选/恒拓开源工程师DotNet技术Band等级自评表.xlsx
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/工作文档/人才筛选/恒拓开源工程师DotNet技术Band等级自评表.xlsx
+++ b/trunk/工作文档/人才筛选/恒拓开源工程师DotNet技术Band等级自评表.xlsx
@@ -296,11 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">有一种Orm技术实际开发经验，了解Orm开发与传统Ado.Net开发的区别。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能够独立的完成一个后台用户菜单模块的开发，能够搭建一个简单的项目模版，具备简单的PetShop级别的三层架构，知道使用代码生成技术来生成代码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,10 +305,6 @@
   </si>
   <si>
     <t>C级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进一步掌握Ado.Net,立即连接字符串的一些高级配置属性，能够编写Ado。Net事务代码。了解数据库连接池概念，了解触发器，函数，游标的使用。能够在存储过程里面编写复杂的事务。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -398,14 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更深入的了解C#语言，对GC、反射、动态编译，动态代理，依赖注入、延迟加载能有一定的使用，能熟练使用重构工具对代码进行优化，掌握更多的设计模式，深入理解面向对象理论，对于算法有一定的了解，深入的了解Linq语法的使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更深入的理解DataSet模型，了解DataSet高级用法，能够控制Ado.Net超时处理，了解分布式事务的使用。了解Ado.Net数据工厂类。了解更为复杂的TSQL，行转列，列转行，分页SQL，复杂的聚合查询。能够对高并发的系统提出数据库优化方案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>深入了解Asp.Net页面生命周期，能够编写简单Webcontrol，Webpart，熟练使用HttpMoudle，httpHander，熟练掌握Ajax技术，有比较丰富的页面与服务器交互数据的经验。了解webcontrol事件冒泡机制，了解Webcontrol如何实现Postback保存数据功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,19 +446,11 @@
   </si>
   <si>
     <t>有一些较为成熟的NOSQL应用经验，有NOSQL与关系型数据库同步的开发实战经验。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深入的理解代码生成引擎，能够开发一些更负责的代码模版，编写一些专门代码生成插件，初步了解VS插件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">对Orm技术底层对象有一些更深入的了解，更够在Orm的基础上进行封装。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够在开发框架中引入ORM，IOC能理念，数据库访问框架也应该支持多数据库，能够实现事务的统一管理。代码生成应该不仅限于代码，需要能够编写UI界面的代码生成机。对一些高级应用应该有自己的实现方案，如定时任务执行，工作流，数据权限设计。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -648,6 +623,31 @@
   </si>
   <si>
     <t xml:space="preserve"> 对Json有更深入的了解，有比较丰富的客户端服务器端交互编程经验，能编写一定复杂的Jquery插件，初步了解Js面向对象概念，熟练掌握DOM模型。能够熟练的使用jsUI框架（Extjs，Jquery Easy UI）搭建项目，能够编写复杂的Js组件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解分布式事务的使用。了解Ado.Net数据工厂类。了解更为复杂的TSQL，行转列，列转行，掌握多种分页SQL的写法，复杂的聚合查询。能够对高并发的系统提出数据库优化方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步掌握Ado.Net,立即连接字符串的一些高级配置属性，能够编写Ado。Net事务代码。了解数据库连接池概念，了解触发器，函数，游标的使用。能够在存储过程里面编写复杂的事务。更深入的理解DataSet模型，了解DataSet高级用法，能够控制Ado.Net超时处理，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够在开发框架中引入ORM，IOC，AOP等理念，数据库访问框架也应该支持多数据库，能够实现事务的统一管理。代码生成应该不仅限于代码，需要能够编写UI界面的代码生成机。对一些高级应用应该有自己的实现方案，如定时任务执行，工作流，数据权限设计，数据历史日志。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入的理解代码生成引擎，能够开发一些更复杂的代码模版，编写一些专门代码生成插件，初步了解VS插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">有一种Orm技术实际开发经验，直接使用Orm做过项目开发，了解Orm开发与传统Ado.Net开发的区别。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更深入的了解C#语言，对GC、反射、动态编译，动态代理，依赖注入、延迟加载能有一定的使用，能熟练使用重构工具对代码进行优化，掌握更多的设计模式，深入理解面向对象理论，有利用面向对象理论实际解决过复杂业务问题的经验，对于算法有一定的了解，深入的了解Linq语法的使用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1452,7 +1452,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>29</v>
@@ -1520,10 +1520,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
@@ -1577,226 +1577,226 @@
         <v>66</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="120" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="120" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="I7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="J7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="L7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="P7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="Q7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="R7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="S7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="T7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="V7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="120" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="H8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="I8" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="J8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="K8" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="M8" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="N8" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="P8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="Q8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="R8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="S8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="T8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="U8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +1831,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="54" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1847,21 +1847,21 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1883,7 +1883,7 @@
       <c r="A4" s="30"/>
       <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1951,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1973,7 +1973,7 @@
       <c r="A12" s="30"/>
       <c r="B12" s="32"/>
       <c r="C12" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -1984,7 +1984,7 @@
       <c r="A13" s="30"/>
       <c r="B13" s="32"/>
       <c r="C13" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="21" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="8" t="s">
@@ -2083,7 +2083,7 @@
     </row>
     <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="7" t="s">
